--- a/results/FrequencyTables/26581162_sg129F.xlsx
+++ b/results/FrequencyTables/26581162_sg129F.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.0154185022026432</v>
       </c>
       <c r="C2">
-        <v>0.96</v>
+        <v>0.959251101321586</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.0110132158590308</v>
       </c>
       <c r="E2">
-        <v>0.83</v>
+        <v>0.766519823788546</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.0253303964757709</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.0066079295154185</v>
       </c>
       <c r="H2">
-        <v>0.03</v>
+        <v>0.0220264317180617</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.861233480176211</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.00770925110132159</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00330396475770925</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.0330396475770925</v>
       </c>
       <c r="M2">
-        <v>0.91</v>
+        <v>0.893171806167401</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00110132158590308</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00220264317180617</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00330396475770925</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00550660792951542</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00220264317180617</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00220264317180617</v>
       </c>
       <c r="U2">
-        <v>0.91</v>
+        <v>0.859030837004405</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.0066079295154185</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.00550660792951542</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00110132158590308</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.0275330396475771</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.0209251101321586</v>
       </c>
       <c r="F3">
-        <v>0.15</v>
+        <v>0.155286343612335</v>
       </c>
       <c r="G3">
-        <v>0.94</v>
+        <v>0.966960352422907</v>
       </c>
       <c r="H3">
-        <v>0.97</v>
+        <v>0.977973568281938</v>
       </c>
       <c r="I3">
-        <v>0.05</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="J3">
-        <v>0.91</v>
+        <v>0.924008810572687</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.00991189427312775</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00110132158590308</v>
       </c>
       <c r="N3">
-        <v>0.86</v>
+        <v>0.865638766519824</v>
       </c>
       <c r="O3">
-        <v>0.98</v>
+        <v>0.965859030837004</v>
       </c>
       <c r="P3">
-        <v>0.03</v>
+        <v>0.0319383259911894</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00110132158590308</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0187224669603524</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00440528634361234</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00110132158590308</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.0209251101321586</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.0066079295154185</v>
       </c>
       <c r="W3">
-        <v>0.04</v>
+        <v>0.0253303964757709</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00220264317180617</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,43 +613,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97</v>
+        <v>0.975770925110132</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>0.0352422907488987</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00110132158590308</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.0242290748898678</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>0.0308370044052863</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.0209251101321586</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00440528634361234</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00220264317180617</v>
       </c>
       <c r="L4">
-        <v>0.95</v>
+        <v>0.95704845814978</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00330396475770925</v>
       </c>
       <c r="N4">
-        <v>0.11</v>
+        <v>0.122246696035242</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -658,28 +658,28 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
+        <v>0.00550660792951542</v>
       </c>
       <c r="R4">
-        <v>0.05</v>
+        <v>0.0231277533039648</v>
       </c>
       <c r="S4">
-        <v>0.99</v>
+        <v>0.990088105726872</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.988986784140969</v>
       </c>
       <c r="U4">
-        <v>0.04</v>
+        <v>0.111233480176211</v>
       </c>
       <c r="V4">
-        <v>0.03</v>
+        <v>0.0242290748898678</v>
       </c>
       <c r="W4">
-        <v>0.95</v>
+        <v>0.964757709251101</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>0.964757709251101</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.00770925110132159</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.00550660792951542</v>
       </c>
       <c r="D5">
-        <v>0.94</v>
+        <v>0.960352422907489</v>
       </c>
       <c r="E5">
-        <v>0.11</v>
+        <v>0.188325991189427</v>
       </c>
       <c r="F5">
-        <v>0.77</v>
+        <v>0.788546255506608</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.00440528634361234</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03</v>
+        <v>0.0286343612334802</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.0682819383259912</v>
       </c>
       <c r="K5">
-        <v>0.99</v>
+        <v>0.984581497797357</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00991189427312775</v>
       </c>
       <c r="M5">
-        <v>0.09</v>
+        <v>0.102422907488987</v>
       </c>
       <c r="N5">
-        <v>0.03</v>
+        <v>0.0110132158590308</v>
       </c>
       <c r="O5">
-        <v>0.02</v>
+        <v>0.0319383259911894</v>
       </c>
       <c r="P5">
-        <v>0.97</v>
+        <v>0.964757709251101</v>
       </c>
       <c r="Q5">
-        <v>0.99</v>
+        <v>0.987885462555066</v>
       </c>
       <c r="R5">
-        <v>0.95</v>
+        <v>0.958149779735683</v>
       </c>
       <c r="S5">
-        <v>0.01</v>
+        <v>0.00330396475770925</v>
       </c>
       <c r="T5">
-        <v>0.01</v>
+        <v>0.00770925110132159</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="V5">
-        <v>0.96</v>
+        <v>0.969162995594714</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00220264317180617</v>
       </c>
       <c r="X5">
-        <v>0.04</v>
+        <v>0.0253303964757709</v>
       </c>
     </row>
   </sheetData>
